--- a/data/trans_bre/P3A_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,77%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 3,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 5,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 9,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 6,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,66; 118,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,96; 109,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,39; 278,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,52; 186,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,78%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,13; 0,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; -5,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,05; 0,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,53; 2,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,7; 14,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,49; -16,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,54; 1,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,97%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,0; -10,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,2; -17,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,6; -7,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; -3,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,01; -37,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,63; -41,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,03; -16,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,77; -8,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,18%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,82; -9,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,31; -15,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,82; -13,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 17,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,04; -49,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,12; -50,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,12; -38,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,68; 147,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,09%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,97; -1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,62; -9,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,53; -14,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,67; -6,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,2; -11,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,6; -41,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,82; -49,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,16; -21,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,89</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,66</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,69</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,48%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,91; -6,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; -8,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,89; -12,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,59; -12,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,0; -30,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,18; -43,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,06; -49,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,36; -48,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,2%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,7%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -6,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,85; -3,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,83; -8,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; -9,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,63; -46,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,71; -29,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,84; -57,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,72; -58,92</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-8,92</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-12,61</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-13,85</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-7,14</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-42,66%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-45,92%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-42,72%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-26,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-10,64; -7,02</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; -10,52</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-15,71; -11,62</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; -1,59</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-48,97; -34,99</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-50,67; -39,92</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-47,31; -37,07</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-37,86; -9,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P3A_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,7</t>
+          <t>-2,19; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,23</t>
+          <t>-2,16; 4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,87</t>
+          <t>2,17; 9,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 6,9</t>
+          <t>-3,62; 7,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 118,03</t>
+          <t>-34,25; 122,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 109,86</t>
+          <t>-28,62; 104,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,39; 278,08</t>
+          <t>28,84; 274,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 186,05</t>
+          <t>-43,91; 218,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 0,56</t>
+          <t>-9,31; 0,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 3,94</t>
+          <t>-6,86; 3,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -5,61</t>
+          <t>-16,36; -5,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 0,56</t>
+          <t>-18,12; 0,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 2,23</t>
+          <t>-30,25; 2,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 14,72</t>
+          <t>-21,99; 13,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -16,31</t>
+          <t>-40,33; -15,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 1,98</t>
+          <t>-54,13; 2,29</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -10,0</t>
+          <t>-19,41; -10,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,2; -17,09</t>
+          <t>-26,86; -16,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -7,24</t>
+          <t>-19,76; -8,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -3,21</t>
+          <t>-19,03; -3,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,01; -37,38</t>
+          <t>-59,89; -36,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,63; -41,36</t>
+          <t>-58,66; -41,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -16,64</t>
+          <t>-38,96; -19,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,77; -8,07</t>
+          <t>-41,06; -8,88</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -9,3</t>
+          <t>-17,93; -9,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,31; -15,49</t>
+          <t>-25,37; -15,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,82; -13,37</t>
+          <t>-23,81; -13,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 17,57</t>
+          <t>-6,65; 19,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,04; -49,42</t>
+          <t>-75,28; -50,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,12; -50,13</t>
+          <t>-70,82; -51,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,12; -38,62</t>
+          <t>-58,0; -37,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 147,04</t>
+          <t>-19,24; 178,16</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -1,39</t>
+          <t>-9,31; -1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,62; -9,93</t>
+          <t>-20,81; -9,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,53; -14,34</t>
+          <t>-25,98; -14,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,67; -6,32</t>
+          <t>-14,93; -6,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-62,2; -11,62</t>
+          <t>-58,75; -8,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,6; -41,94</t>
+          <t>-70,18; -39,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-70,82; -49,05</t>
+          <t>-70,35; -47,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,16; -21,53</t>
+          <t>-44,07; -23,1</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -6,01</t>
+          <t>-18,16; -6,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -8,16</t>
+          <t>-19,86; -7,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,89; -12,21</t>
+          <t>-23,83; -11,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -12,95</t>
+          <t>-27,31; -12,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,0; -30,55</t>
+          <t>-65,5; -31,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,18; -43,05</t>
+          <t>-76,07; -41,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,06; -49,22</t>
+          <t>-74,11; -46,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-89,36; -48,73</t>
+          <t>-86,95; -48,14</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -6,39</t>
+          <t>-17,3; -6,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,85; -3,42</t>
+          <t>-13,21; -3,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,83; -8,9</t>
+          <t>-19,44; -9,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -9,68</t>
+          <t>-18,52; -10,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-85,63; -46,08</t>
+          <t>-85,46; -49,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-78,71; -29,11</t>
+          <t>-79,37; -32,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-88,84; -57,62</t>
+          <t>-89,68; -58,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-79,72; -58,92</t>
+          <t>-79,76; -59,24</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -7,02</t>
+          <t>-10,76; -7,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -10,52</t>
+          <t>-14,65; -10,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,71; -11,62</t>
+          <t>-16,06; -11,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -1,59</t>
+          <t>-10,68; -1,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -34,99</t>
+          <t>-49,24; -35,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,67; -39,92</t>
+          <t>-51,08; -39,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -37,07</t>
+          <t>-47,73; -37,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -9,74</t>
+          <t>-38,19; -9,71</t>
         </is>
       </c>
     </row>
